--- a/stock_base_info.xlsx
+++ b/stock_base_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="0" windowWidth="20320" windowHeight="9920"/>
+    <workbookView xWindow="2480" yWindow="0" windowWidth="20320" windowHeight="9920"/>
   </bookViews>
   <sheets>
     <sheet name="stock_base_info" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="165">
   <si>
     <t>KEY</t>
   </si>
@@ -39,606 +39,608 @@
     <t>maxAge</t>
   </si>
   <si>
+    <t>numberOfAnalystOpinions</t>
+  </si>
+  <si>
+    <t>targetMeanPrice</t>
+  </si>
+  <si>
+    <t>targetHighPrice</t>
+  </si>
+  <si>
+    <t>totalDebt</t>
+  </si>
+  <si>
+    <t>totalRevenue</t>
+  </si>
+  <si>
+    <t>recommendationMean</t>
+  </si>
+  <si>
+    <t>isEsgPopulated</t>
+  </si>
+  <si>
+    <t>52WeekChange</t>
+  </si>
+  <si>
+    <t>sharesPercentSharesOut</t>
+  </si>
+  <si>
+    <t>lastFiscalYearEnd</t>
+  </si>
+  <si>
+    <t>heldPercentInsiders</t>
+  </si>
+  <si>
+    <t>nextFiscalYearEnd</t>
+  </si>
+  <si>
+    <t>mostRecentQuarter</t>
+  </si>
+  <si>
+    <t>shortRatio</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>enterpriseValue</t>
+  </si>
+  <si>
+    <t>priceHint</t>
+  </si>
+  <si>
+    <t>earningsQuarterlyGrowth</t>
+  </si>
+  <si>
+    <t>priceToSalesTrailing12Months</t>
+  </si>
+  <si>
+    <t>previousClose</t>
+  </si>
+  <si>
+    <t>regularMarketOpen</t>
+  </si>
+  <si>
+    <t>regularMarketPreviousClose</t>
+  </si>
+  <si>
+    <t>fiftyDayAverage</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>regularMarketDayLow</t>
+  </si>
+  <si>
+    <t>regularMarketVolume</t>
+  </si>
+  <si>
+    <t>averageVolume</t>
+  </si>
+  <si>
+    <t>dayLow</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>fiftyTwoWeekHigh</t>
+  </si>
+  <si>
+    <t>fiveYearAvgDividendYield</t>
+  </si>
+  <si>
+    <t>bid</t>
+  </si>
+  <si>
+    <t>tradeable</t>
+  </si>
+  <si>
+    <t>bidSize</t>
+  </si>
+  <si>
+    <t>dayHigh</t>
+  </si>
+  <si>
+    <t>ebitdaMargins</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBITDA/매출액이므로, 금융 비용 및 감가 상각비를 포함한 총 영업 이익률</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>profitMargins</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사가 매출 1 달러당 벌어 들인 수익을 백분율로 나타낸 것</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>grossMargins</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사에서 주요 비즈니스 활동 (자재, 노동 및 직접 비용 관련)을 얼마나 잘 관리하여 이익을 얻는지를 나타내는 척도로 순 매출액에 따른 회사의 총 이익 기준</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>revenueGrowth</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>operatingCashflow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업활동을해서 벌어들인 현금흐름</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>operatingMargins</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출액에 대한 영업이익 비율</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ebitda</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> '이자, 세금, 감가상각비, 무형자산상각비 차감 전 이익(Earnings Before Interest, Tax, Depreciation, and Amortization)'의 약자</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetLowPrice</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표 저가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>grossProfits</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출총이익은 매출액(Revenue)에서 매출원가(COGS)를 차감한 후 기업이 벌어들인 이익</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeCashflow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>잉여현금흐름(FCF) 기업이 사업으로 벌어들인 현금 가운데 영업비용, 설비투자액, 세금 등을 제외하고 남은 현금</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetMedianPrice</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표 중간 가격</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 가격</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>earningsGrowth</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출 성장률</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>수익 성장률</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentRatio</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>유동비율은 기업의 1년 이내 상환되어야할 단기채무 상환능력을 유동자산 기준으로 측정하는 비율</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>returnOnAssets</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>총자산순이익률로, 기업의 총자산으로 당기순이익이 얼마나 올랐는지 가늠하는 지표이고요. 부채를 포함한 기업의 총자산을 얼마나 효율적으로 활용해서 이익을 냈는지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표 평균 가격</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>debtToEquity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>부채자본비율(debt-to-equity ratio, D/E ratio)을 보면 됩니다. 이 숫자는 기업의 전체 부채와 기업 자본의 비율을 의미합니다. 이 비율을 통해 기업이 얼마나 부채에 의존하는지, 혹은 앞으로의 부채를 갚을 자본이 어느 정도 있는지를 파악할 수 있습니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>returnOnEquity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기자본이익률(Return On Equity, ROE)이란 기업이 자본을 이용하여 얼마만큼의 이익을 냈는지를 나타내는 지표로, 당기순이익 값을 자본 값으로 나누어 구한다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalCash</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 현금</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 부채</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 이익</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalCashPerShare</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업내의 잠재적 자금조달 능력을 나타내는 지표로 「현금흐름」을 평균 발행주식 수로 나눈 수치.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>revenuePerShare</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주당 매출</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>quickRatio</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>당좌비율 (Quick Ratio)은 회사의 단기 유동성을 나타내며 가장 유동적인 자산으로 단기부채를 상환할 수 있는 회사의 능력을 측정</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmtOffSetMilliseconds</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>enterpriseToRevenue</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업 가치(Enterprise Value)를 매출(Revenue)로 나누어 기업의 주식 가치를 측정하는 지표로 매출액 대비 가치비율</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>enterpriseToEbitda</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업가치가 순수한 영업활동을 통한 이익의 몇 배인가를 알려주는 지표로, 그 비율이 낮다면 회사의 주가가 기업가치에 비해 저평가수할 수 있다는 의미</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharesOutstanding</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>발행 주식수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bookValue</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>장부 가액은 자산 대차 대조표 계정 잔액에 따른 자산 가치입니다. 자산의 경우, 그 가치는 자산의 원가를 기초로 자산에 대한 감가 상각, 상각 또는 손상 차손을 차감 한 금액</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharesShort</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>공매도</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지난 회계연도 말</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>heldPercentInstitutions</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>netIncomeToCommon</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>trailingEps</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>현행EPS로 현 시점을 기준으로 과거 12개월 동안의 주당순이익 추정치</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastDividendValue</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 배당 비율</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SandP52WeekChange</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>priceToBook</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 회계연도 말</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 최근 분기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>공매도 비율</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 종가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>floatShares</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 거래용 주식수를 의미합니다. 여기에는 회사의 경영권과 관련된 주식들을 뺀 나머지 거래용 주식의 수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업가치</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>분기 수익 성장율</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거 12개월 주가매출액비율 추정치로 주가를 1주당 매출액으로 나눈 수치로 비율이 작을수록 주가가 상대적으로 저평가된 것으로 볼 수 있다.가매출액비율를 1주당 매출액으로 나눈 수치로 비율이 작을수록 주가가 상대적으로 저평가된 것으로 볼 수 있다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pegRatio</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주가이익증가비율(PEG)로 PER을 EPS 증가율로 나눈 값이며 낮다는 것은 PER이 낮고, EPS 증가율이 높다. 그러므로 주식이 많이 떨어져 있으면서, 주식 수 대비 순이익이 증가하고 있다 즉, 저평가되었으면서도 성장성이 높다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>forwardPE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식의 시장가격을 추후 12 개월간 예상되는 총 주당순이익으로 나눈 값으로 정의됩니다. 포워드 PER 이 낮은 경우, 주가가 상승할 가능성이 높아 매력적인 밸류에이션을 가진 것으로 분석</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shortPercentOfFloat</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>유통 주식수 대비 공매도 물량</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharesShortPriorMonth</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>impliedSharesOutstanding</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>전환사채(CB), 우선주 등 보통주로 전환 가능한 모든 주식들이 보통주로 전환되었다고 가정했을 때 발행 주식 수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>twoHundredDayAverage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>200일 평균 가격</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>trailingAnnualDividendYield</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>payoutRatio</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>배당성향으로 기업에서 해당 회계기간 동안 창출한 수익에서 주주에게 배당으로 얼마만큼 환원하는지 나타내는 비율</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>regularMarketDayHigh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>averageDailyVolume10Day</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10일 평균 거래량</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규장 이전 종가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규장 최고 가격</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규장 시작 가격</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>50일 평균 가격</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>trailingAnnualDividendRate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>averageVolume10days</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dividendRate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>배당률</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>예상 (연간) 배당 수익률</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>예상 (연간) 배당률</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규장 저가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>trailingPE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거 12개월치 주가수익비율</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>marketCap</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가총액으로 주가와 발행 주식수를 곱한 것으로 상장회사 혹은 기업 가치를 평가하는 지표</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균 거래량</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>일 저가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ask</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>askSize</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규장 거래량</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5년평균 배당 수익률</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>52주 신저가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>52주 신고가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dividendYield</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>배당수익률로 투자자가 주식을 취득함으로써 기업으로부터 지급받는 배당의 수익률을 의미</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>일 최고가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>regularMarketPrice</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>trailingPegRatio</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규직원수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>forwardEps</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>12개월선행 EPS로 현시점에서 향후 12개월동안의 주당순이익 추정치</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>currentPrice</t>
-  </si>
-  <si>
-    <t>numberOfAnalystOpinions</t>
-  </si>
-  <si>
-    <t>targetMeanPrice</t>
-  </si>
-  <si>
-    <t>targetHighPrice</t>
-  </si>
-  <si>
-    <t>totalDebt</t>
-  </si>
-  <si>
-    <t>totalRevenue</t>
-  </si>
-  <si>
-    <t>recommendationMean</t>
-  </si>
-  <si>
-    <t>isEsgPopulated</t>
-  </si>
-  <si>
-    <t>52WeekChange</t>
-  </si>
-  <si>
-    <t>sharesPercentSharesOut</t>
-  </si>
-  <si>
-    <t>lastFiscalYearEnd</t>
-  </si>
-  <si>
-    <t>heldPercentInsiders</t>
-  </si>
-  <si>
-    <t>nextFiscalYearEnd</t>
-  </si>
-  <si>
-    <t>mostRecentQuarter</t>
-  </si>
-  <si>
-    <t>shortRatio</t>
-  </si>
-  <si>
-    <t>beta</t>
-  </si>
-  <si>
-    <t>enterpriseValue</t>
-  </si>
-  <si>
-    <t>priceHint</t>
-  </si>
-  <si>
-    <t>earningsQuarterlyGrowth</t>
-  </si>
-  <si>
-    <t>priceToSalesTrailing12Months</t>
-  </si>
-  <si>
-    <t>previousClose</t>
-  </si>
-  <si>
-    <t>regularMarketOpen</t>
-  </si>
-  <si>
-    <t>regularMarketPreviousClose</t>
-  </si>
-  <si>
-    <t>fiftyDayAverage</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>regularMarketDayLow</t>
-  </si>
-  <si>
-    <t>regularMarketVolume</t>
-  </si>
-  <si>
-    <t>averageVolume</t>
-  </si>
-  <si>
-    <t>dayLow</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>fiftyTwoWeekHigh</t>
-  </si>
-  <si>
-    <t>fiveYearAvgDividendYield</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>fiftyTwoWeekLow</t>
-  </si>
-  <si>
-    <t>bid</t>
-  </si>
-  <si>
-    <t>tradeable</t>
-  </si>
-  <si>
-    <t>bidSize</t>
-  </si>
-  <si>
-    <t>dayHigh</t>
-  </si>
-  <si>
-    <t>ebitdaMargins</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBITDA/매출액이므로, 금융 비용 및 감가 상각비를 포함한 총 영업 이익률</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>profitMargins</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사가 매출 1 달러당 벌어 들인 수익을 백분율로 나타낸 것</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>grossMargins</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사에서 주요 비즈니스 활동 (자재, 노동 및 직접 비용 관련)을 얼마나 잘 관리하여 이익을 얻는지를 나타내는 척도로 순 매출액에 따른 회사의 총 이익 기준</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>revenueGrowth</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>operatingCashflow</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>영업활동을해서 벌어들인 현금흐름</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>operatingMargins</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>매출액에 대한 영업이익 비율</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ebitda</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> '이자, 세금, 감가상각비, 무형자산상각비 차감 전 이익(Earnings Before Interest, Tax, Depreciation, and Amortization)'의 약자</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetLowPrice</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>목표 저가</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>grossProfits</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>매출총이익은 매출액(Revenue)에서 매출원가(COGS)를 차감한 후 기업이 벌어들인 이익</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeCashflow</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>잉여현금흐름(FCF) 기업이 사업으로 벌어들인 현금 가운데 영업비용, 설비투자액, 세금 등을 제외하고 남은 현금</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetMedianPrice</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>목표 중간 가격</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 가격</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>earningsGrowth</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>매출 성장률</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>수익 성장률</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>currentRatio</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>유동비율은 기업의 1년 이내 상환되어야할 단기채무 상환능력을 유동자산 기준으로 측정하는 비율</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>returnOnAssets</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>총자산순이익률로, 기업의 총자산으로 당기순이익이 얼마나 올랐는지 가늠하는 지표이고요. 부채를 포함한 기업의 총자산을 얼마나 효율적으로 활용해서 이익을 냈는지</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>목표 평균 가격</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>debtToEquity</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>부채자본비율(debt-to-equity ratio, D/E ratio)을 보면 됩니다. 이 숫자는 기업의 전체 부채와 기업 자본의 비율을 의미합니다. 이 비율을 통해 기업이 얼마나 부채에 의존하는지, 혹은 앞으로의 부채를 갚을 자본이 어느 정도 있는지를 파악할 수 있습니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>returnOnEquity</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>자기자본이익률(Return On Equity, ROE)이란 기업이 자본을 이용하여 얼마만큼의 이익을 냈는지를 나타내는 지표로, 당기순이익 값을 자본 값으로 나누어 구한다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>목교 최고 가격</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalCash</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 현금</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 부채</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 이익</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalCashPerShare</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업내의 잠재적 자금조달 능력을 나타내는 지표로 「현금흐름」을 평균 발행주식 수로 나눈 수치.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>revenuePerShare</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1주당 매출</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>quickRatio</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>당좌비율 (Quick Ratio)은 회사의 단기 유동성을 나타내며 가장 유동적인 자산으로 단기부채를 상환할 수 있는 회사의 능력을 측정</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>gmtOffSetMilliseconds</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>enterpriseToRevenue</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업 가치(Enterprise Value)를 매출(Revenue)로 나누어 기업의 주식 가치를 측정하는 지표로 매출액 대비 가치비율</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>enterpriseToEbitda</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업가치가 순수한 영업활동을 통한 이익의 몇 배인가를 알려주는 지표로, 그 비율이 낮다면 회사의 주가가 기업가치에 비해 저평가수할 수 있다는 의미</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>forwardEps</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>12개월선행 EPS로 현시점에서 향후 12개월동안의 주당순이익 추정치</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>sharesOutstanding</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>발행 주식수</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>bookValue</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>장부 가액은 자산 대차 대조표 계정 잔액에 따른 자산 가치입니다. 자산의 경우, 그 가치는 자산의 원가를 기초로 자산에 대한 감가 상각, 상각 또는 손상 차손을 차감 한 금액</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>sharesShort</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>공매도</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>지난 회계연도 말</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>heldPercentInstitutions</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>netIncomeToCommon</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>trailingEps</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>현행EPS로 현 시점을 기준으로 과거 12개월 동안의 주당순이익 추정치</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastDividendValue</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>최종 배당 비율</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SandP52WeekChange</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>priceToBook</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음 회계연도 말</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>가장 최근 분기</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>공매도 비율</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>이전 종가</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>floatShares</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반 거래용 주식수를 의미합니다. 여기에는 회사의 경영권과 관련된 주식들을 뺀 나머지 거래용 주식의 수</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업가치</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>분기 수익 성장율</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>과거 12개월 주가매출액비율 추정치로 주가를 1주당 매출액으로 나눈 수치로 비율이 작을수록 주가가 상대적으로 저평가된 것으로 볼 수 있다.가매출액비율를 1주당 매출액으로 나눈 수치로 비율이 작을수록 주가가 상대적으로 저평가된 것으로 볼 수 있다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>pegRatio</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>주가이익증가비율(PEG)로 PER을 EPS 증가율로 나눈 값이며 낮다는 것은 PER이 낮고, EPS 증가율이 높다. 그러므로 주식이 많이 떨어져 있으면서, 주식 수 대비 순이익이 증가하고 있다 즉, 저평가되었으면서도 성장성이 높다</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>forwardPE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>주식의 시장가격을 추후 12 개월간 예상되는 총 주당순이익으로 나눈 값으로 정의됩니다. 포워드 PER 이 낮은 경우, 주가가 상승할 가능성이 높아 매력적인 밸류에이션을 가진 것으로 분석</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shortPercentOfFloat</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>유통 주식수 대비 공매도 물량</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>sharesShortPriorMonth</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>impliedSharesOutstanding</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>전환사채(CB), 우선주 등 보통주로 전환 가능한 모든 주식들이 보통주로 전환되었다고 가정했을 때 발행 주식 수</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>twoHundredDayAverage</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>200일 평균 가격</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>trailingAnnualDividendYield</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>payoutRatio</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>배당성향으로 기업에서 해당 회계기간 동안 창출한 수익에서 주주에게 배당으로 얼마만큼 환원하는지 나타내는 비율</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>regularMarketDayHigh</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>averageDailyVolume10Day</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>10일 평균 거래량</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>정규장 이전 종가</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>정규장 최고 가격</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>정규장 시작 가격</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>50일 평균 가격</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>trailingAnnualDividendRate</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>시가</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>averageVolume10days</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>dividendRate</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>배당률</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>예상 (연간) 배당 수익률</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>예상 (연간) 배당률</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>정규장 저가</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>trailingPE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>과거 12개월치 주가수익비율</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>marketCap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>시가총액으로 주가와 발행 주식수를 곱한 것으로 상장회사 혹은 기업 가치를 평가하는 지표</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>평균 거래량</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>일 저가</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ask</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>askSize</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>정규장 거래량</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5년평균 배당 수익률</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>52주 신저가</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>52주 신고가</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>dividendYield</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>배당수익률로 투자자가 주식을 취득함으로써 기업으로부터 지급받는 배당의 수익률을 의미</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>일 최고가</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>regularMarketPrice</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>trailingPegRatio</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>정규직원수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표 최고 가격</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +650,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -1283,10 +1285,10 @@
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="20" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="20" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1623,8 +1625,8 @@
   <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1654,7 +1656,7 @@
         <v>221000</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
@@ -1667,172 +1669,172 @@
     </row>
     <row r="4" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4">
         <v>0.49418997999999997</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" s="4">
         <v>0.36686000000000002</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="4">
         <v>0.68401999999999996</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B7" s="4">
         <v>89034997760</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" s="4">
         <v>0.124</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="4">
         <v>0.42054999999999998</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="4">
         <v>97982996480</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11" s="4">
         <v>250</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12" s="4">
         <v>135620000000</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" s="4">
         <v>49479000064</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B14" s="4">
         <v>330</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>162</v>
       </c>
       <c r="B15" s="4">
         <v>286.14999999999998</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B16" s="4">
         <v>3.1E-2</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B17" s="4">
         <v>1.7849999999999999</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B18" s="4">
         <v>0.14918999999999999</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="4">
         <v>47</v>
@@ -1840,117 +1842,117 @@
     </row>
     <row r="20" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="4">
         <v>333</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B21" s="4">
         <v>47.075000000000003</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B22" s="4">
         <v>0.47151001999999997</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="4">
         <v>411</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B24" s="4">
         <v>104748998656</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" s="4">
         <v>78399995904</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" s="4">
         <v>198269992960</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B27" s="4">
         <v>14.045</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B28" s="4">
         <v>26.45</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B29" s="4">
         <v>1.5669999999999999</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" s="4">
         <v>1.7</v>
@@ -1958,7 +1960,7 @@
     </row>
     <row r="31" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" s="4">
         <v>0</v>
@@ -1966,7 +1968,7 @@
     </row>
     <row r="32" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B32" s="4">
         <v>-14400000</v>
@@ -1974,29 +1976,29 @@
     </row>
     <row r="33" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B33" s="4">
         <v>10.631</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B34" s="4">
         <v>21.510999999999999</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35" s="4">
         <v>-6.072545E-2</v>
@@ -2005,51 +2007,51 @@
     </row>
     <row r="36" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="B36" s="4">
         <v>11.93</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B37" s="4">
         <v>7457889792</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B38" s="4">
         <v>22.312999999999999</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B39" s="4">
         <v>38192351</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40" s="4">
         <v>5.0999996999999998E-3</v>
@@ -2057,18 +2059,18 @@
     </row>
     <row r="41" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41" s="4">
         <v>1656547200</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B42" s="4">
         <v>0.72037004999999998</v>
@@ -2076,7 +2078,7 @@
     </row>
     <row r="43" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B43" s="4">
         <v>72737996800</v>
@@ -2084,29 +2086,29 @@
     </row>
     <row r="44" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B44" s="4">
         <v>9.52</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B45" s="4">
         <v>0.62</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B46" s="4">
         <v>-5.6043804000000003E-2</v>
@@ -2114,7 +2116,7 @@
     </row>
     <row r="47" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B47" s="4">
         <v>12.824363</v>
@@ -2122,7 +2124,7 @@
     </row>
     <row r="48" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B48" s="4">
         <v>7.3999999999999999E-4</v>
@@ -2130,51 +2132,51 @@
     </row>
     <row r="49" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B49" s="4">
         <v>1719705600</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B50" s="4">
         <v>1656547200</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B51" s="4">
         <v>1.43</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B52" s="4">
         <v>7450732296</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B53" s="4">
         <v>0.92720599999999997</v>
@@ -2182,18 +2184,18 @@
     </row>
     <row r="54" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B54" s="4">
         <v>2107726757888</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B55" s="4">
         <v>2</v>
@@ -2201,62 +2203,62 @@
     </row>
     <row r="56" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B56" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B57" s="4">
         <v>10.763479999999999</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B58" s="4">
         <v>1.86</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B59" s="4">
         <v>23.985748000000001</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B60" s="4">
         <v>5.0999996999999998E-3</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B61" s="4">
         <v>38896339</v>
@@ -2264,227 +2266,227 @@
     </row>
     <row r="62" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B62" s="4">
         <v>0</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B63" s="4">
         <v>290.17</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B64" s="4">
         <v>288.89999999999998</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B65" s="4">
         <v>293.61579999999998</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B66" s="4">
         <v>8.5467140000000004E-3</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B67" s="4">
         <v>0.25080000000000002</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B68" s="4">
         <v>289.25</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B69" s="4">
         <v>20168540</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B70" s="4">
         <v>290.17</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B71" s="4">
         <v>267.0292</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B72" s="4">
         <v>2.48</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B73" s="4">
         <v>288.89999999999998</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B74" s="4">
         <v>20168540</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B75" s="4">
         <v>2.48</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B76" s="4">
         <v>285.56</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B77" s="4">
         <v>30.057772</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B78" s="4">
         <v>20529243</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B79" s="4">
         <v>2134075113472</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B80" s="4">
         <v>26469567</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B81" s="4">
         <v>285.56</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B82" s="4">
         <v>285.19</v>
@@ -2492,7 +2494,7 @@
     </row>
     <row r="83" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B83" s="4">
         <v>800</v>
@@ -2500,51 +2502,51 @@
     </row>
     <row r="84" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B84" s="4">
         <v>20529243</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B85" s="4">
         <v>349.67</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B86" s="4">
         <v>1.23</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="B87" s="4">
         <v>241.51</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B88" s="4">
         <v>285</v>
@@ -2552,7 +2554,7 @@
     </row>
     <row r="89" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B89" s="4">
         <v>0</v>
@@ -2560,18 +2562,18 @@
     </row>
     <row r="90" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B90" s="4">
         <v>8.5000000000000006E-3</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B91" s="4">
         <v>900</v>
@@ -2579,18 +2581,18 @@
     </row>
     <row r="92" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B92" s="4">
         <v>289.25</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B93" s="4">
         <v>286.14999999999998</v>
@@ -2598,7 +2600,7 @@
     </row>
     <row r="94" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B94" s="4">
         <v>2.1802999999999999</v>
